--- a/data/trans_bre/P32-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.8545781799639222</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.6609334400367924</v>
+        <v>-0.6609334400367921</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-1</v>
@@ -649,7 +649,7 @@
         <v>-0.255457164029647</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3031040600754108</v>
+        <v>-0.3031040600754107</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.621514839214497</v>
+        <v>-2.734397622291799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.943950992214484</v>
+        <v>-7.771431940980385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.27725107701358</v>
+        <v>-3.224761600392259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.801926276363699</v>
+        <v>-2.619870986378236</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.9285520445896562</v>
+        <v>-0.9330067027126833</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7834005873262984</v>
+        <v>-0.7800183075102232</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8680710886838926</v>
+        <v>-0.8677865510357685</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.241386449426098</v>
+        <v>-0.2429298639864901</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.981958421201741</v>
+        <v>-1.979232168927889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.418974625823361</v>
+        <v>2.605495065032887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.553790423301605</v>
+        <v>1.358525819194071</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>-0.2364823552700109</v>
+        <v>-0.1922762145764268</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.17186237572636</v>
+        <v>1.533120918866713</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.421107139235499</v>
+        <v>1.321973506398384</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>-3.209448929155529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.6925011181912105</v>
+        <v>-0.6925011181912099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.7269525749838175</v>
@@ -745,7 +745,7 @@
         <v>-0.5750618398009695</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1183622802721001</v>
+        <v>-0.1183622802721</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.775876924745691</v>
+        <v>-3.769957688870402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.907513793737156</v>
+        <v>-5.743344018141093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.728439096282864</v>
+        <v>-5.717966199614797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.539410980140726</v>
+        <v>-4.441501338192744</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9261193464045057</v>
+        <v>-0.9108952187366642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.812507456486818</v>
+        <v>-0.8230173702887312</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6069079614081202</v>
+        <v>-0.6172933814277742</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.2969173506518526</v>
+        <v>-0.4927859634627194</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.6845635607484446</v>
+        <v>-0.3294593375781441</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.567560942221677</v>
+        <v>-0.393693264767052</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.340128040089539</v>
+        <v>3.174507250349027</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3304640420902719</v>
+        <v>0.1623124237725068</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0398734189513561</v>
+        <v>0.08044778996050359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.01865451029449426</v>
+        <v>-0.02295837610719999</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7910572370038252</v>
+        <v>0.7192074143339428</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-2.496202290988826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.09244824040154</v>
+        <v>-2.092448240401538</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.6630121454551052</v>
@@ -845,7 +845,7 @@
         <v>-0.5182946463859724</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2725709779510785</v>
+        <v>-0.2725709779510784</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.720920738934721</v>
+        <v>-5.752894027511906</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.25956732734149</v>
+        <v>-9.602441109070673</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.364039493222671</v>
+        <v>-5.198148251352121</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.820648733580746</v>
+        <v>-6.611852088896035</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.9433065846610619</v>
+        <v>-0.9454096198735666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8409796484539919</v>
+        <v>-0.8481877903372824</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7276882709064711</v>
+        <v>-0.7018811378785672</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3917115502330513</v>
+        <v>0.272249351806094</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.117683459120387</v>
+        <v>-2.892624701565437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5575972350129726</v>
+        <v>0.939064089212462</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.446728930498361</v>
+        <v>3.216349867268563</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6242821717097419</v>
+        <v>0.6112554758982632</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.4137591253559748</v>
+        <v>-0.4085993990665731</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.370856385029552</v>
+        <v>0.4773962928748148</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6731399958469982</v>
+        <v>0.6809421848963251</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.435384033784536</v>
+        <v>-2.537457807741356</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.523606428986119</v>
+        <v>-7.614930772934815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.808308340081449</v>
+        <v>-4.862769947969418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-11.20407002280422</v>
+        <v>-11.53090884266021</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6457113392218661</v>
+        <v>-0.6577121327379489</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8159527322722626</v>
+        <v>-0.8390236371621099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6007033597711798</v>
+        <v>-0.5902150061167144</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.9252597310243673</v>
+        <v>-0.9288860877987598</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.953933429752224</v>
+        <v>2.902201899088897</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.191926201034953</v>
+        <v>-1.535765388143313</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.397629432685003</v>
+        <v>1.372537483210764</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-4.393511123674454</v>
+        <v>-4.419791492267434</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.4043345447185</v>
+        <v>1.469798131209864</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1705501732970713</v>
+        <v>-0.2108279100067971</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2747537072001313</v>
+        <v>0.2814130304574088</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.4651843165490365</v>
+        <v>-0.4547427438006993</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>-2.003965908189488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-3.048362875924135</v>
+        <v>-3.048362875924134</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4593916467689654</v>
@@ -1045,7 +1045,7 @@
         <v>-0.3811339446698576</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.4691831168592134</v>
+        <v>-0.4691831168592133</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.315676661711513</v>
+        <v>-2.355894450501183</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.087289620827785</v>
+        <v>-6.134478069253145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.403424983727524</v>
+        <v>-3.460012287130276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.801769284458444</v>
+        <v>-5.039948303098669</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7403519712593938</v>
+        <v>-0.7265522166204206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8097070352664865</v>
+        <v>-0.8047115401946162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5679299537330806</v>
+        <v>-0.5847126988641878</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6392610166431</v>
+        <v>-0.6612507445450537</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.07547619488036342</v>
+        <v>-0.03754927254446462</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.06640672631763</v>
+        <v>-3.135448813304663</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3558297069517118</v>
+        <v>-0.5701889687640828</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.9988692906327408</v>
+        <v>-1.284787417336118</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.02456453440379503</v>
+        <v>0.04302555009901984</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4934150937630316</v>
+        <v>-0.4920998266354251</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.06619411337490948</v>
+        <v>-0.1222837039667693</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1440253942316167</v>
+        <v>-0.1954339101711324</v>
       </c>
     </row>
     <row r="19">
